--- a/Clase_Anaconda.xlsx
+++ b/Clase_Anaconda.xlsx
@@ -76,10 +76,10 @@
     <t>sexto</t>
   </si>
   <si>
-    <t>hombre</t>
-  </si>
-  <si>
-    <t>mujer</t>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
   <si>
     <t>UNAM</t>

--- a/Clase_Anaconda.xlsx
+++ b/Clase_Anaconda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Edad</t>
   </si>
@@ -46,67 +46,157 @@
     <t>Categoría_IMC</t>
   </si>
   <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>Pe</t>
-  </si>
-  <si>
-    <t>Fu</t>
-  </si>
-  <si>
-    <t>Sut</t>
-  </si>
-  <si>
-    <t>Sutano</t>
-  </si>
-  <si>
-    <t>Perengano</t>
-  </si>
-  <si>
-    <t>Fulanita</t>
-  </si>
-  <si>
-    <t>Sutanita</t>
-  </si>
-  <si>
-    <t>cuarto</t>
-  </si>
-  <si>
-    <t>sexto</t>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>JV</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Yuna</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Pako</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Sexto</t>
+  </si>
+  <si>
+    <t>Egresada</t>
+  </si>
+  <si>
+    <t>Titulado</t>
+  </si>
+  <si>
+    <t>Doctorante</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
   <si>
     <t>Hombre</t>
   </si>
   <si>
-    <t>Mujer</t>
+    <t>Hembra</t>
+  </si>
+  <si>
+    <t>Macho</t>
   </si>
   <si>
     <t>UNAM</t>
   </si>
   <si>
-    <t>UVM</t>
-  </si>
-  <si>
-    <t>De la Vida</t>
-  </si>
-  <si>
-    <t>Correr</t>
-  </si>
-  <si>
-    <t>Nadar</t>
-  </si>
-  <si>
-    <t>Trotar</t>
-  </si>
-  <si>
-    <t>Brincar</t>
+    <t>Basquetball</t>
+  </si>
+  <si>
+    <t>Volley</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Natación</t>
+  </si>
+  <si>
+    <t>Tae Kwon Do</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Tocho</t>
+  </si>
+  <si>
+    <t>Hapkido</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Obeso</t>
   </si>
   <si>
     <t>Sobrepeso</t>
-  </si>
-  <si>
-    <t>Infrapeso</t>
   </si>
 </sst>
 </file>
@@ -464,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,34 +597,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>27.34375</v>
+        <v>20.07774787474903</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,34 +632,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J3">
-        <v>29.38475665748393</v>
+        <v>30.07116843195563</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -577,34 +667,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H4">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J4">
-        <v>28.88888888888889</v>
+        <v>21.875</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -612,34 +702,416 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1.6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>21.875</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1.71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>23.59700420642249</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>20.3125</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1.72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>21.97133585722012</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>21.484375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1.6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>21.484375</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1.74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>22.12973972783723</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>1.6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12">
+        <v>19.921875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>1.75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C13">
+        <v>1.52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
+        <v>25.96952908587257</v>
+      </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1.76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>26.47210743801653</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1.7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15">
+        <v>22.49134948096886</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5">
-        <v>17.95918367346939</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>1.8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16">
+        <v>32.09876543209877</v>
+      </c>
+      <c r="K16" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Clase_Anaconda.xlsx
+++ b/Clase_Anaconda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Edad</t>
   </si>
@@ -155,12 +155,6 @@
   </si>
   <si>
     <t>Hombre</t>
-  </si>
-  <si>
-    <t>Hembra</t>
-  </si>
-  <si>
-    <t>Macho</t>
   </si>
   <si>
     <t>UNAM</t>
@@ -612,19 +606,19 @@
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>20.07774787474903</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -647,19 +641,19 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>30.07116843195563</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -682,19 +676,19 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>49</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4" t="s">
-        <v>51</v>
       </c>
       <c r="J4">
         <v>21.875</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -717,19 +711,19 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J5">
         <v>21.875</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -752,19 +746,19 @@
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>23.59700420642249</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -787,19 +781,19 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7">
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J7">
         <v>20.3125</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -822,19 +816,19 @@
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>21.97133585722012</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -857,19 +851,19 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>21.484375</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -892,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>55</v>
@@ -901,7 +895,7 @@
         <v>21.484375</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -924,19 +918,19 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11">
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>22.12973972783723</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -959,19 +953,19 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12">
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>19.921875</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -991,22 +985,22 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13">
-        <v>25.96952908587257</v>
+        <v>25.96952908587258</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1029,19 +1023,19 @@
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14">
         <v>26.47210743801653</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1064,19 +1058,19 @@
         <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15">
         <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>22.49134948096886</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1096,22 +1090,22 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16">
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>32.09876543209877</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
